--- a/lab3/数据字典.xlsx
+++ b/lab3/数据字典.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
   <si>
     <t>数据项名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上映时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>票价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,11 +532,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电影票属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上映场次属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,9 +611,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,11 +623,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,660 +912,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
-    <col min="6" max="7" width="25.875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="G39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2">
+        <v>30</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="3">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="3">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="3">
-        <v>40</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="3">
-        <v>40</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="3">
-        <v>40</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="3">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="3">
-        <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="3">
-        <v>20</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="3">
-        <v>30</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="3">
-        <v>16</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1565,8 +1591,8 @@
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A23:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
